--- a/reporte_principal.xlsx
+++ b/reporte_principal.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Reporte de Encuesta" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Distribucion_trastornos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Distribucion_Edades_Trastornos" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -363,6 +364,1216 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Distribución de Edades</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Rangos de Edad</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Distribución de Edades</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Promedio de trastornos por grupo de edades</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!C9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$C$10:$C$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!D9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$D$10:$D$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!E9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$E$10:$E$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!F9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$F$10:$F$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!G9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$G$10:$G$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!H9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$H$10:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!I9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$I$10:$I$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!J9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$J$10:$J$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!K9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$K$10:$K$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!L9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$L$10:$L$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="10"/>
+          <order val="10"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!M9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$M$10:$M$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="11"/>
+          <order val="11"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!N9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$N$10:$N$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="12"/>
+          <order val="12"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!O9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$O$10:$O$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="13"/>
+          <order val="13"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!P9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$P$10:$P$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="14"/>
+          <order val="14"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!Q9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$Q$10:$Q$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="15"/>
+          <order val="15"/>
+          <tx>
+            <strRef>
+              <f>'Distribucion_Edades_Trastornos'!R9</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$R$10:$R$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Grupo de Edad</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Promedio</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Tendencia de promedio de trastornos por grupo de edad</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Promedio Episodio depresivo mayor</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$C$10:$C$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Promedio Trastorno distímico</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$D$10:$D$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>Promedio Riesgo de suicidio</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$E$10:$E$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>Promedio Episodio (hipo)maníaco</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$F$10:$F$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>Promedio Trastorno de angustia</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$G$10:$G$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>Promedio Agorafobia</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$H$10:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <v>Promedio Fobia social</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$I$10:$I$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <v>Promedio Trastorno obsesivo-compulsivo</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$J$10:$J$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <v>Promedio Estado por estrés postraumático</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$K$10:$K$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <v>Promedio Abuso y dependencia de alcohol</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$L$10:$L$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="10"/>
+          <order val="10"/>
+          <tx>
+            <v>Promedio Trastornos asociados al uso de sustancias psicoactivas no alcohólicas</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$M$10:$M$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="11"/>
+          <order val="11"/>
+          <tx>
+            <v>Promedio Trastornos psicóticos</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$N$10:$N$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="12"/>
+          <order val="12"/>
+          <tx>
+            <v>Promedio Anorexia nerviosa</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$O$10:$O$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="13"/>
+          <order val="13"/>
+          <tx>
+            <v>Promedio Bulimia nerviosa</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$P$10:$P$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="14"/>
+          <order val="14"/>
+          <tx>
+            <v>Promedio Trastorno de ansiedad generalizada</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$Q$10:$Q$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="15"/>
+          <order val="15"/>
+          <tx>
+            <v>Promedio Trastorno antisocial de la personalidad</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$A$10:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Distribucion_Edades_Trastornos'!$R$10:$R$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Grupo de Edad</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Promedio</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -412,6 +1623,99 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10800000" cy="7200000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10800000" cy="7200000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_general" displayName="Tabla_general" ref="A1:V48" headerRowCount="1">
   <autoFilter ref="A1:V48"/>
@@ -449,6 +1753,33 @@
   <tableColumns count="2">
     <tableColumn id="1" name="Trastorno"/>
     <tableColumn id="2" name="Cantidad"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TablaPromediosTrastornos" displayName="TablaPromediosTrastornos" ref="A1:R15" headerRowCount="1">
+  <autoFilter ref="A1:R15"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Rango de Edad"/>
+    <tableColumn id="2" name="Cantidad de Personas"/>
+    <tableColumn id="3" name="Episodio depresivo mayor"/>
+    <tableColumn id="4" name="Trastorno distímico"/>
+    <tableColumn id="5" name="Riesgo de suicidio"/>
+    <tableColumn id="6" name="Episodio (hipo)maníaco"/>
+    <tableColumn id="7" name="Trastorno de angustia"/>
+    <tableColumn id="8" name="Agorafobia"/>
+    <tableColumn id="9" name="Fobia social"/>
+    <tableColumn id="10" name="Trastorno obsesivo-compulsivo"/>
+    <tableColumn id="11" name="Estado por estrés postraumático"/>
+    <tableColumn id="12" name="Abuso y dependencia de alcohol"/>
+    <tableColumn id="13" name="Trastornos asociados al uso de sustancias psicoactivas no alcohólicas"/>
+    <tableColumn id="14" name="Trastornos psicóticos"/>
+    <tableColumn id="15" name="Anorexia nerviosa"/>
+    <tableColumn id="16" name="Bulimia nerviosa"/>
+    <tableColumn id="17" name="Trastorno de ansiedad generalizada"/>
+    <tableColumn id="18" name="Trastorno antisocial de la personalidad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6256,4 +7587,947 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="23" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="18" customWidth="1" min="16" max="16"/>
+    <col width="30" customWidth="1" min="17" max="17"/>
+    <col width="30" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rango de Edad</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad de Personas</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Episodio depresivo mayor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Trastorno distímico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo de suicidio</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Episodio (hipo)maníaco</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Trastorno de angustia</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Agorafobia</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fobia social</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trastorno obsesivo-compulsivo</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Estado por estrés postraumático</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Abuso y dependencia de alcohol</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Trastornos asociados al uso de sustancias psicoactivas no alcohólicas</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Trastornos psicóticos</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Anorexia nerviosa</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Bulimia nerviosa</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Trastorno de ansiedad generalizada</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Trastorno antisocial de la personalidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Menos de 16</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>16-25</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>26-35</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>36-45</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>46-60</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Más de 60</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Rango de Edad</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad de Personas</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Episodio depresivo mayor</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Trastorno distímico</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Riesgo de suicidio</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Episodio (hipo)maníaco</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Trastorno de angustia</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Agorafobia</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Fobia social</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Trastorno obsesivo-compulsivo</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Estado por estrés postraumático</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Abuso y dependencia de alcohol</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Trastornos asociados al uso de sustancias psicoactivas no alcohólicas</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Trastornos psicóticos</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Anorexia nerviosa</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Bulimia nerviosa</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Trastorno de ansiedad generalizada</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>Promedio Trastorno antisocial de la personalidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Menos de 16</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>16-25</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>26-35</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>36-45</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>46-60</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Más de 60</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>